--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="6" documentId="8_{14C8DF59-DC3C-4462-BFAB-30CF9488695E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B060129F-CED1-46E6-8EB6-A563154A8724}"/>
   <bookViews>
-    <workbookView xWindow="8556" yWindow="252" windowWidth="14004" windowHeight="12708" xr2:uid="{BB4986A6-5EF9-4F11-A2F4-6F04AF4BE04F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{BB4986A6-5EF9-4F11-A2F4-6F04AF4BE04F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -739,9 +739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{948B67BF-E8D6-468A-9A76-647ADA92703E}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
